--- a/TestData/Ingram_Testdata_Sample.xlsx
+++ b/TestData/Ingram_Testdata_Sample.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ustiws02\Documents\x4a-automation-test-suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B904B9D1-56BC-4F9B-B14B-537DBFD7F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CFEE59-0436-43AE-9BD2-FCFF8759A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Qty</t>
   </si>
@@ -55,6 +56,21 @@
   </si>
   <si>
     <t>Ingram SKU</t>
+  </si>
+  <si>
+    <t>Vendor Part Number</t>
+  </si>
+  <si>
+    <t>OMS-3257</t>
+  </si>
+  <si>
+    <t>OMS-3258</t>
+  </si>
+  <si>
+    <t>Robin joseph, gajendra M</t>
+  </si>
+  <si>
+    <t>Darakshan</t>
   </si>
 </sst>
 </file>
@@ -393,7 +409,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,8 +422,8 @@
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -443,6 +459,9 @@
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
@@ -519,4 +538,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489B9E41-6DE3-4C0E-81C7-B4BE6B00E04B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>